--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/kev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/codeup_data_science/capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272ADFFD-4C49-7B40-885D-7B21410D7FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78741BC7-3DD4-164E-810A-58EEBF28F428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionList" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="259">
   <si>
     <t>survey_section</t>
   </si>
@@ -807,6 +805,12 @@
   </si>
   <si>
     <t>from_orig_file</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>persona</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3453,6 +3458,35 @@
         <v>89</v>
       </c>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" t="s">
+        <v>242</v>
+      </c>
+      <c r="H74" t="s">
+        <v>257</v>
+      </c>
+      <c r="I74" t="s">
+        <v>257</v>
+      </c>
+      <c r="J74" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J73" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/codeup_data_science/capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78741BC7-3DD4-164E-810A-58EEBF28F428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123164B4-A030-0F4E-8BBB-E2ECAE55D989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -1162,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dom/codeup_data_science/capstone/data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123164B4-A030-0F4E-8BBB-E2ECAE55D989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995AB403-7B64-F644-AB3A-13D38D3EEF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="276">
   <si>
     <t>survey_section</t>
   </si>
@@ -276,9 +276,6 @@
     <t>What would be the ideal audience size for a conference about research that *you* would want to attend?</t>
   </si>
   <si>
-    <t>Desired Size Cat</t>
-  </si>
-  <si>
     <t>Ideal Audience Size (Standardized)</t>
   </si>
   <si>
@@ -615,12 +612,6 @@
     <t>exp_lead_res_team</t>
   </si>
   <si>
-    <t>ur_ed_include_res</t>
-  </si>
-  <si>
-    <t>ur_ed_with_res</t>
-  </si>
-  <si>
     <t>learning_talks</t>
   </si>
   <si>
@@ -811,6 +802,66 @@
   </si>
   <si>
     <t>persona</t>
+  </si>
+  <si>
+    <t>q09b</t>
+  </si>
+  <si>
+    <t>q18b</t>
+  </si>
+  <si>
+    <t>x01</t>
+  </si>
+  <si>
+    <t>q18bst</t>
+  </si>
+  <si>
+    <t>q18bmt</t>
+  </si>
+  <si>
+    <t>q18bun</t>
+  </si>
+  <si>
+    <t>q17c</t>
+  </si>
+  <si>
+    <t>ideal_conference_size_cat_orig</t>
+  </si>
+  <si>
+    <t>research_educ</t>
+  </si>
+  <si>
+    <t>research_educ_desc</t>
+  </si>
+  <si>
+    <t>research_educ_cat</t>
+  </si>
+  <si>
+    <t>ideal_structure_cat</t>
+  </si>
+  <si>
+    <t>ideal_single_track</t>
+  </si>
+  <si>
+    <t>ideal_multi_track</t>
+  </si>
+  <si>
+    <t>ideal_unconference</t>
+  </si>
+  <si>
+    <t>Did your education include research (Standardized)</t>
+  </si>
+  <si>
+    <t>Ideal Conference Structure (Standardized)</t>
+  </si>
+  <si>
+    <t>Ideal structure includes single-track</t>
+  </si>
+  <si>
+    <t>Ideal structure includes multi-track</t>
+  </si>
+  <si>
+    <t>Ideal structure includes unconference</t>
   </si>
 </sst>
 </file>
@@ -1160,11 +1211,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1181,25 +1232,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
         <v>252</v>
       </c>
-      <c r="B1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" t="s">
-        <v>255</v>
-      </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H1" t="s">
         <v>0</v>
@@ -1213,10 +1264,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1225,10 +1276,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" t="s">
         <v>240</v>
-      </c>
-      <c r="F2" t="s">
-        <v>243</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -1242,10 +1293,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1254,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1271,10 +1322,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1283,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -1300,10 +1351,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1312,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -1329,10 +1380,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1341,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -1361,10 +1412,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -1373,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1393,10 +1444,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1405,13 +1456,13 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1425,10 +1476,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1437,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G9" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1457,10 +1508,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1469,13 +1520,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -1489,10 +1540,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1501,13 +1552,13 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -1521,10 +1572,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1533,13 +1584,13 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1553,10 +1604,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1565,13 +1616,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -1585,10 +1636,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1597,13 +1648,13 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -1617,10 +1668,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1629,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1649,10 +1700,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -1661,13 +1712,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -1681,10 +1732,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -1693,13 +1744,13 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -1713,10 +1764,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1725,10 +1776,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -1742,10 +1793,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1754,10 +1805,10 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H19" t="s">
         <v>6</v>
@@ -1771,10 +1822,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -1783,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
         <v>6</v>
@@ -1800,10 +1851,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1812,13 +1863,13 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F21" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H21" t="s">
         <v>26</v>
@@ -1832,10 +1883,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1844,13 +1895,13 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H22" t="s">
         <v>26</v>
@@ -1864,10 +1915,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1876,13 +1927,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H23" t="s">
         <v>26</v>
@@ -1896,10 +1947,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1908,13 +1959,13 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H24" t="s">
         <v>26</v>
@@ -1928,10 +1979,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1940,13 +1991,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H25" t="s">
         <v>26</v>
@@ -1960,10 +2011,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1972,13 +2023,13 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H26" t="s">
         <v>26</v>
@@ -1992,10 +2043,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2004,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H27" t="s">
         <v>26</v>
@@ -2024,10 +2075,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -2036,13 +2087,13 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H28" t="s">
         <v>26</v>
@@ -2056,10 +2107,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -2068,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H29" t="s">
         <v>26</v>
@@ -2088,10 +2139,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2100,13 +2151,13 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H30" t="s">
         <v>26</v>
@@ -2120,10 +2171,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2132,27 +2183,27 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H31" t="s">
         <v>26</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2161,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H32" t="s">
         <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
         <v>71</v>
@@ -2178,10 +2229,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2190,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
         <v>28</v>
@@ -2210,10 +2261,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2222,13 +2273,13 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H34" t="s">
         <v>28</v>
@@ -2242,10 +2293,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2254,13 +2305,13 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H35" t="s">
         <v>28</v>
@@ -2274,10 +2325,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2286,13 +2337,13 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H36" t="s">
         <v>28</v>
@@ -2306,10 +2357,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2318,13 +2369,13 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H37" t="s">
         <v>28</v>
@@ -2338,10 +2389,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2350,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F38" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H38" t="s">
         <v>28</v>
@@ -2370,10 +2421,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2382,13 +2433,13 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H39" t="s">
         <v>28</v>
@@ -2402,10 +2453,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2414,13 +2465,13 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F40" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
         <v>28</v>
@@ -2434,10 +2485,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2446,13 +2497,13 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H41" t="s">
         <v>28</v>
@@ -2466,10 +2517,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2478,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H42" t="s">
         <v>28</v>
@@ -2498,10 +2549,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2510,13 +2561,13 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H43" t="s">
         <v>28</v>
@@ -2530,10 +2581,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2542,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H44" t="s">
         <v>28</v>
@@ -2562,10 +2613,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2574,13 +2625,13 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F45" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H45" t="s">
         <v>28</v>
@@ -2594,10 +2645,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2606,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H46" t="s">
         <v>41</v>
@@ -2626,10 +2677,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2638,13 +2689,13 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H47" t="s">
         <v>41</v>
@@ -2658,10 +2709,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2670,13 +2721,13 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H48" t="s">
         <v>41</v>
@@ -2690,10 +2741,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2702,13 +2753,13 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H49" t="s">
         <v>41</v>
@@ -2722,10 +2773,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2734,13 +2785,13 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G50" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H50" t="s">
         <v>41</v>
@@ -2754,10 +2805,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2766,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H51" t="s">
         <v>41</v>
@@ -2786,10 +2837,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2798,13 +2849,13 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G52" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
         <v>41</v>
@@ -2818,10 +2869,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2830,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H53" t="s">
         <v>41</v>
@@ -2850,10 +2901,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -2862,13 +2913,13 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G54" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H54" t="s">
         <v>41</v>
@@ -2882,10 +2933,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -2894,13 +2945,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F55" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H55" t="s">
         <v>41</v>
@@ -2914,10 +2965,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C56" t="b">
         <v>0</v>
@@ -2926,10 +2977,10 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F56" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H56" t="s">
         <v>41</v>
@@ -2943,10 +2994,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -2955,10 +3006,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H57" t="s">
         <v>41</v>
@@ -2972,10 +3023,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -2984,10 +3035,10 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H58" t="s">
         <v>41</v>
@@ -3001,10 +3052,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3013,10 +3064,10 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F59" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H59" t="s">
         <v>53</v>
@@ -3030,10 +3081,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -3042,27 +3093,27 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H60" t="s">
         <v>53</v>
       </c>
       <c r="I60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s">
         <v>80</v>
-      </c>
-      <c r="J60" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -3071,27 +3122,27 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F61" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H61" t="s">
         <v>53</v>
       </c>
       <c r="I61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s">
         <v>82</v>
-      </c>
-      <c r="J61" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -3100,13 +3151,13 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F62" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G62" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H62" t="s">
         <v>53</v>
@@ -3120,10 +3171,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -3132,13 +3183,13 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G63" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H63" t="s">
         <v>53</v>
@@ -3152,10 +3203,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -3164,13 +3215,13 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G64" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H64" t="s">
         <v>53</v>
@@ -3184,10 +3235,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B65" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3196,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F65" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H65" t="s">
         <v>53</v>
@@ -3216,10 +3267,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3228,13 +3279,13 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G66" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H66" t="s">
         <v>53</v>
@@ -3248,10 +3299,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B67" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3260,13 +3311,13 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F67" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H67" t="s">
         <v>53</v>
@@ -3280,10 +3331,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3292,13 +3343,13 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F68" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G68" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H68" t="s">
         <v>53</v>
@@ -3312,10 +3363,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -3324,13 +3375,13 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F69" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G69" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H69" t="s">
         <v>53</v>
@@ -3344,10 +3395,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
@@ -3356,10 +3407,10 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F70" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H70" t="s">
         <v>53</v>
@@ -3373,10 +3424,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -3385,27 +3436,27 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H71" t="s">
         <v>53</v>
       </c>
       <c r="I71" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" t="s">
         <v>84</v>
-      </c>
-      <c r="J71" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -3414,27 +3465,27 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F72" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H72" t="s">
         <v>53</v>
       </c>
       <c r="I72" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" t="s">
         <v>86</v>
-      </c>
-      <c r="J72" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -3443,27 +3494,27 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F73" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H73" t="s">
         <v>53</v>
       </c>
       <c r="I73" t="s">
+        <v>87</v>
+      </c>
+      <c r="J73" t="s">
         <v>88</v>
-      </c>
-      <c r="J73" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -3472,19 +3523,193 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H74" t="s">
+        <v>254</v>
+      </c>
+      <c r="I74" t="s">
+        <v>254</v>
+      </c>
+      <c r="J74" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" t="s">
+        <v>236</v>
+      </c>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s">
+        <v>90</v>
+      </c>
+      <c r="J75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" t="s">
+        <v>248</v>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>237</v>
+      </c>
+      <c r="F76" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" t="s">
+        <v>53</v>
+      </c>
+      <c r="I76" t="s">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>257</v>
       </c>
-      <c r="I74" t="s">
-        <v>257</v>
-      </c>
-      <c r="J74" t="s">
-        <v>257</v>
+      <c r="B77" t="s">
+        <v>267</v>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77" t="s">
+        <v>236</v>
+      </c>
+      <c r="H77" t="s">
+        <v>53</v>
+      </c>
+      <c r="I77" t="s">
+        <v>81</v>
+      </c>
+      <c r="J77" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>259</v>
+      </c>
+      <c r="B78" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>237</v>
+      </c>
+      <c r="F78" t="s">
+        <v>236</v>
+      </c>
+      <c r="H78" t="s">
+        <v>53</v>
+      </c>
+      <c r="I78" t="s">
+        <v>81</v>
+      </c>
+      <c r="J78" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>260</v>
+      </c>
+      <c r="B79" t="s">
+        <v>269</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>237</v>
+      </c>
+      <c r="F79" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" t="s">
+        <v>53</v>
+      </c>
+      <c r="I79" t="s">
+        <v>81</v>
+      </c>
+      <c r="J79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>261</v>
+      </c>
+      <c r="B80" t="s">
+        <v>270</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>237</v>
+      </c>
+      <c r="F80" t="s">
+        <v>236</v>
+      </c>
+      <c r="H80" t="s">
+        <v>53</v>
+      </c>
+      <c r="I80" t="s">
+        <v>81</v>
+      </c>
+      <c r="J80" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995AB403-7B64-F644-AB3A-13D38D3EEF67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087497D-D8B7-CE43-8013-B49AB9294ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="QuestionList" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QuestionList!$A$1:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QuestionList!$A$1:$K$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="281">
   <si>
     <t>survey_section</t>
   </si>
@@ -723,12 +725,6 @@
     <t>often5</t>
   </si>
   <si>
-    <t>q03dict</t>
-  </si>
-  <si>
-    <t>q04dict</t>
-  </si>
-  <si>
     <t>tenure6</t>
   </si>
   <si>
@@ -801,9 +797,6 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>persona</t>
-  </si>
-  <si>
     <t>q09b</t>
   </si>
   <si>
@@ -862,6 +855,30 @@
   </si>
   <si>
     <t>Ideal structure includes unconference</t>
+  </si>
+  <si>
+    <t>persona_id</t>
+  </si>
+  <si>
+    <t>in_wrangle</t>
+  </si>
+  <si>
+    <t>q09a_cats</t>
+  </si>
+  <si>
+    <t>q17a_cats</t>
+  </si>
+  <si>
+    <t>q18a_cats</t>
+  </si>
+  <si>
+    <t>yesno10</t>
+  </si>
+  <si>
+    <t>q03_cats</t>
+  </si>
+  <si>
+    <t>q04_cats</t>
   </si>
 </sst>
 </file>
@@ -1211,58 +1228,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="115.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="115.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D1" t="s">
-        <v>253</v>
-      </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="H1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
       <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1275,23 +1295,26 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>237</v>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1304,23 +1327,26 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>235</v>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1333,23 +1359,26 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>237</v>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1357,28 +1386,31 @@
         <v>166</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>237</v>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
-      </c>
-      <c r="H5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>7</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1391,26 +1423,29 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>237</v>
+      <c r="E6" t="b">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" t="s">
         <v>228</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1423,26 +1458,29 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>237</v>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" t="s">
         <v>228</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1455,26 +1493,29 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>237</v>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" t="s">
         <v>228</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -1487,26 +1528,29 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>237</v>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" t="s">
         <v>228</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1519,26 +1563,29 @@
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>237</v>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" t="s">
         <v>228</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1551,26 +1598,29 @@
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>237</v>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" t="s">
         <v>228</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>11</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1583,26 +1633,29 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>237</v>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G12" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" t="s">
         <v>228</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -1615,26 +1668,29 @@
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>237</v>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G13" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" t="s">
         <v>228</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>11</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1647,26 +1703,29 @@
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>237</v>
+      <c r="E14" t="b">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G14" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" t="s">
         <v>228</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1679,26 +1738,29 @@
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>237</v>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G15" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" t="s">
         <v>228</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>6</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1711,26 +1773,29 @@
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
-        <v>237</v>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H16" t="s">
+        <v>279</v>
+      </c>
+      <c r="I16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>22</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1743,26 +1808,29 @@
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>237</v>
+      <c r="E17" t="b">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H17" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>24</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1775,23 +1843,26 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>235</v>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>236</v>
-      </c>
-      <c r="H18" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" t="s">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>65</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1804,23 +1875,26 @@
       <c r="D19" t="b">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
-        <v>237</v>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
-      </c>
-      <c r="H19" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" t="s">
+        <v>234</v>
+      </c>
+      <c r="I19" t="s">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>67</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1833,23 +1907,26 @@
       <c r="D20" t="b">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>237</v>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>236</v>
-      </c>
-      <c r="H20" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" t="s">
+        <v>234</v>
+      </c>
+      <c r="I20" t="s">
         <v>6</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>69</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -1862,26 +1939,29 @@
       <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>237</v>
+      <c r="E21" t="b">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G21" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H21" t="s">
+        <v>229</v>
+      </c>
+      <c r="I21" t="s">
         <v>26</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>27</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -1894,26 +1974,29 @@
       <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
-        <v>237</v>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>27</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -1926,26 +2009,29 @@
       <c r="D23" t="b">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>237</v>
+      <c r="E23" t="b">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H23" t="s">
+        <v>229</v>
+      </c>
+      <c r="I23" t="s">
         <v>26</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -1958,26 +2044,29 @@
       <c r="D24" t="b">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
-        <v>237</v>
+      <c r="E24" t="b">
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" t="s">
         <v>26</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>27</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -1990,26 +2079,29 @@
       <c r="D25" t="b">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>237</v>
+      <c r="E25" t="b">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H25" t="s">
+        <v>229</v>
+      </c>
+      <c r="I25" t="s">
         <v>26</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -2022,26 +2114,29 @@
       <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>237</v>
+      <c r="E26" t="b">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G26" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H26" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" t="s">
         <v>26</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -2054,26 +2149,29 @@
       <c r="D27" t="b">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>237</v>
+      <c r="E27" t="b">
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H27" t="s">
+        <v>229</v>
+      </c>
+      <c r="I27" t="s">
         <v>26</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2086,26 +2184,29 @@
       <c r="D28" t="b">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>237</v>
+      <c r="E28" t="b">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G28" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H28" t="s">
+        <v>229</v>
+      </c>
+      <c r="I28" t="s">
         <v>26</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>27</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -2118,26 +2219,29 @@
       <c r="D29" t="b">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>237</v>
+      <c r="E29" t="b">
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G29" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H29" t="s">
+        <v>229</v>
+      </c>
+      <c r="I29" t="s">
         <v>26</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>27</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -2150,31 +2254,34 @@
       <c r="D30" t="b">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>237</v>
+      <c r="E30" t="b">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H30" t="s">
+        <v>229</v>
+      </c>
+      <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>27</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2182,28 +2289,31 @@
       <c r="D31" t="b">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>238</v>
+      <c r="E31" t="b">
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>236</v>
+      </c>
+      <c r="I31" t="s">
         <v>26</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>90</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>121</v>
       </c>
       <c r="B32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -2211,23 +2321,26 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>235</v>
+      <c r="E32" t="b">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
-      </c>
-      <c r="H32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>241</v>
+      </c>
+      <c r="I32" t="s">
         <v>26</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>90</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -2240,26 +2353,29 @@
       <c r="D33" t="b">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>237</v>
+      <c r="E33" t="b">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H33" t="s">
+        <v>230</v>
+      </c>
+      <c r="I33" t="s">
         <v>28</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>29</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -2272,26 +2388,29 @@
       <c r="D34" t="b">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>237</v>
+      <c r="E34" t="b">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" t="s">
         <v>28</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>29</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -2304,26 +2423,29 @@
       <c r="D35" t="b">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>237</v>
+      <c r="E35" t="b">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H35" t="s">
+        <v>230</v>
+      </c>
+      <c r="I35" t="s">
         <v>28</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>29</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2336,26 +2458,29 @@
       <c r="D36" t="b">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>237</v>
+      <c r="E36" t="b">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G36" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" t="s">
         <v>28</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>29</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -2368,26 +2493,29 @@
       <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>237</v>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H37" t="s">
+        <v>230</v>
+      </c>
+      <c r="I37" t="s">
         <v>28</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>29</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -2400,26 +2528,29 @@
       <c r="D38" t="b">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>237</v>
+      <c r="E38" t="b">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I38" t="s">
         <v>28</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>35</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -2432,26 +2563,29 @@
       <c r="D39" t="b">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>237</v>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H39" t="s">
+        <v>231</v>
+      </c>
+      <c r="I39" t="s">
         <v>28</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>35</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -2464,26 +2598,29 @@
       <c r="D40" t="b">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>237</v>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H40" t="s">
+        <v>231</v>
+      </c>
+      <c r="I40" t="s">
         <v>28</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>35</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -2496,26 +2633,29 @@
       <c r="D41" t="b">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>237</v>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G41" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
+        <v>231</v>
+      </c>
+      <c r="I41" t="s">
         <v>28</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>35</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -2528,26 +2668,29 @@
       <c r="D42" t="b">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>237</v>
+      <c r="E42" t="b">
+        <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G42" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H42" t="s">
+        <v>231</v>
+      </c>
+      <c r="I42" t="s">
         <v>28</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>35</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2560,26 +2703,29 @@
       <c r="D43" t="b">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>237</v>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G43" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H43" t="s">
+        <v>231</v>
+      </c>
+      <c r="I43" t="s">
         <v>28</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>35</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2592,26 +2738,29 @@
       <c r="D44" t="b">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>237</v>
+      <c r="E44" t="b">
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G44" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H44" t="s">
+        <v>231</v>
+      </c>
+      <c r="I44" t="s">
         <v>28</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>35</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2624,26 +2773,29 @@
       <c r="D45" t="b">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>237</v>
+      <c r="E45" t="b">
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G45" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H45" t="s">
+        <v>231</v>
+      </c>
+      <c r="I45" t="s">
         <v>28</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>35</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2656,26 +2808,29 @@
       <c r="D46" t="b">
         <v>1</v>
       </c>
-      <c r="E46" t="s">
-        <v>237</v>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
+        <v>232</v>
+      </c>
+      <c r="I46" t="s">
         <v>41</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>42</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -2688,26 +2843,29 @@
       <c r="D47" t="b">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>237</v>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H47" t="s">
+        <v>232</v>
+      </c>
+      <c r="I47" t="s">
         <v>41</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>42</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -2720,26 +2878,29 @@
       <c r="D48" t="b">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>237</v>
+      <c r="E48" t="b">
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G48" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H48" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" t="s">
         <v>41</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>42</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -2752,26 +2913,29 @@
       <c r="D49" t="b">
         <v>1</v>
       </c>
-      <c r="E49" t="s">
-        <v>237</v>
+      <c r="E49" t="b">
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
+        <v>232</v>
+      </c>
+      <c r="I49" t="s">
         <v>41</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>42</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -2784,26 +2948,29 @@
       <c r="D50" t="b">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
-        <v>237</v>
+      <c r="E50" t="b">
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
+        <v>232</v>
+      </c>
+      <c r="I50" t="s">
         <v>41</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>42</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -2816,26 +2983,29 @@
       <c r="D51" t="b">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>237</v>
+      <c r="E51" t="b">
+        <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G51" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H51" t="s">
+        <v>232</v>
+      </c>
+      <c r="I51" t="s">
         <v>41</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>42</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -2848,26 +3018,29 @@
       <c r="D52" t="b">
         <v>1</v>
       </c>
-      <c r="E52" t="s">
-        <v>237</v>
+      <c r="E52" t="b">
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G52" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H52" t="s">
+        <v>232</v>
+      </c>
+      <c r="I52" t="s">
         <v>41</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>42</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -2880,26 +3053,29 @@
       <c r="D53" t="b">
         <v>1</v>
       </c>
-      <c r="E53" t="s">
-        <v>237</v>
+      <c r="E53" t="b">
+        <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G53" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H53" t="s">
+        <v>232</v>
+      </c>
+      <c r="I53" t="s">
         <v>41</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>42</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -2912,26 +3088,29 @@
       <c r="D54" t="b">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
-        <v>237</v>
+      <c r="E54" t="b">
+        <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G54" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H54" t="s">
+        <v>232</v>
+      </c>
+      <c r="I54" t="s">
         <v>41</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>42</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -2944,26 +3123,29 @@
       <c r="D55" t="b">
         <v>1</v>
       </c>
-      <c r="E55" t="s">
-        <v>237</v>
+      <c r="E55" t="b">
+        <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G55" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H55" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" t="s">
         <v>41</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>42</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -2976,23 +3158,26 @@
       <c r="D56" t="b">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>235</v>
+      <c r="E56" t="b">
+        <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>243</v>
-      </c>
-      <c r="H56" t="s">
+        <v>233</v>
+      </c>
+      <c r="G56" t="s">
+        <v>241</v>
+      </c>
+      <c r="I56" t="s">
         <v>41</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>72</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -3005,23 +3190,26 @@
       <c r="D57" t="b">
         <v>1</v>
       </c>
-      <c r="E57" t="s">
-        <v>235</v>
+      <c r="E57" t="b">
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
-      </c>
-      <c r="H57" t="s">
+        <v>233</v>
+      </c>
+      <c r="G57" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" t="s">
         <v>41</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>74</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -3034,28 +3222,31 @@
       <c r="D58" t="b">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
-        <v>235</v>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>243</v>
-      </c>
-      <c r="H58" t="s">
+        <v>233</v>
+      </c>
+      <c r="G58" t="s">
+        <v>241</v>
+      </c>
+      <c r="I58" t="s">
         <v>41</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>76</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>148</v>
       </c>
       <c r="B59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -3063,52 +3254,58 @@
       <c r="D59" t="b">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
-        <v>238</v>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>238</v>
-      </c>
-      <c r="H59" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" t="s">
+        <v>236</v>
+      </c>
+      <c r="I59" t="s">
         <v>53</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>78</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="b">
         <v>1</v>
       </c>
-      <c r="E60" t="s">
-        <v>237</v>
+      <c r="E60" t="b">
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>236</v>
-      </c>
-      <c r="H60" t="s">
+        <v>235</v>
+      </c>
+      <c r="G60" t="s">
+        <v>234</v>
+      </c>
+      <c r="I60" t="s">
         <v>53</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>78</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -3121,23 +3318,26 @@
       <c r="D61" t="b">
         <v>1</v>
       </c>
-      <c r="E61" t="s">
-        <v>238</v>
+      <c r="E61" t="b">
+        <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>238</v>
-      </c>
-      <c r="H61" t="s">
+        <v>236</v>
+      </c>
+      <c r="G61" t="s">
+        <v>236</v>
+      </c>
+      <c r="I61" t="s">
         <v>53</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>81</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -3150,26 +3350,29 @@
       <c r="D62" t="b">
         <v>1</v>
       </c>
-      <c r="E62" t="s">
-        <v>237</v>
+      <c r="E62" t="b">
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G62" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
+        <v>232</v>
+      </c>
+      <c r="I62" t="s">
         <v>53</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>54</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -3182,26 +3385,29 @@
       <c r="D63" t="b">
         <v>1</v>
       </c>
-      <c r="E63" t="s">
-        <v>237</v>
+      <c r="E63" t="b">
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G63" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
+        <v>232</v>
+      </c>
+      <c r="I63" t="s">
         <v>53</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>54</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -3214,26 +3420,29 @@
       <c r="D64" t="b">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>237</v>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G64" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
+        <v>232</v>
+      </c>
+      <c r="I64" t="s">
         <v>53</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>54</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -3246,26 +3455,29 @@
       <c r="D65" t="b">
         <v>1</v>
       </c>
-      <c r="E65" t="s">
-        <v>237</v>
+      <c r="E65" t="b">
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G65" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H65" t="s">
+        <v>232</v>
+      </c>
+      <c r="I65" t="s">
         <v>53</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>54</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -3278,26 +3490,29 @@
       <c r="D66" t="b">
         <v>1</v>
       </c>
-      <c r="E66" t="s">
-        <v>237</v>
+      <c r="E66" t="b">
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G66" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H66" t="s">
+        <v>232</v>
+      </c>
+      <c r="I66" t="s">
         <v>53</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>54</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -3310,26 +3525,29 @@
       <c r="D67" t="b">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
-        <v>237</v>
+      <c r="E67" t="b">
+        <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G67" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H67" t="s">
+        <v>232</v>
+      </c>
+      <c r="I67" t="s">
         <v>53</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>54</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -3342,26 +3560,29 @@
       <c r="D68" t="b">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
-        <v>237</v>
+      <c r="E68" t="b">
+        <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G68" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H68" t="s">
+        <v>232</v>
+      </c>
+      <c r="I68" t="s">
         <v>53</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>54</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -3374,26 +3595,29 @@
       <c r="D69" t="b">
         <v>1</v>
       </c>
-      <c r="E69" t="s">
-        <v>237</v>
+      <c r="E69" t="b">
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G69" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H69" t="s">
+        <v>232</v>
+      </c>
+      <c r="I69" t="s">
         <v>53</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>54</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -3406,28 +3630,31 @@
       <c r="D70" t="b">
         <v>1</v>
       </c>
-      <c r="E70" t="s">
-        <v>235</v>
+      <c r="E70" t="b">
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>243</v>
-      </c>
-      <c r="H70" t="s">
+        <v>233</v>
+      </c>
+      <c r="G70" t="s">
+        <v>241</v>
+      </c>
+      <c r="I70" t="s">
         <v>53</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>63</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C71" t="b">
         <v>0</v>
@@ -3435,28 +3662,31 @@
       <c r="D71" t="b">
         <v>1</v>
       </c>
-      <c r="E71" t="s">
-        <v>235</v>
+      <c r="E71" t="b">
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
-      </c>
-      <c r="H71" t="s">
+        <v>233</v>
+      </c>
+      <c r="G71" t="s">
+        <v>241</v>
+      </c>
+      <c r="I71" t="s">
         <v>53</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>83</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>161</v>
       </c>
       <c r="B72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -3464,28 +3694,31 @@
       <c r="D72" t="b">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>235</v>
+      <c r="E72" t="b">
+        <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>243</v>
-      </c>
-      <c r="H72" t="s">
+        <v>233</v>
+      </c>
+      <c r="G72" t="s">
+        <v>241</v>
+      </c>
+      <c r="I72" t="s">
         <v>53</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>85</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>162</v>
       </c>
       <c r="B73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -3493,28 +3726,31 @@
       <c r="D73" t="b">
         <v>1</v>
       </c>
-      <c r="E73" t="s">
-        <v>235</v>
+      <c r="E73" t="b">
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>243</v>
-      </c>
-      <c r="H73" t="s">
+        <v>233</v>
+      </c>
+      <c r="G73" t="s">
+        <v>241</v>
+      </c>
+      <c r="I73" t="s">
         <v>53</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>87</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B74" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -3522,28 +3758,31 @@
       <c r="D74" t="b">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
-        <v>237</v>
+      <c r="E74" t="b">
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>236</v>
-      </c>
-      <c r="H74" t="s">
-        <v>254</v>
+        <v>235</v>
+      </c>
+      <c r="G74" t="s">
+        <v>234</v>
       </c>
       <c r="I74" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J74" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+        <v>252</v>
+      </c>
+      <c r="K74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -3551,28 +3790,34 @@
       <c r="D75" t="b">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>237</v>
+      <c r="E75" t="b">
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="G75" t="s">
+        <v>234</v>
       </c>
       <c r="H75" t="s">
+        <v>275</v>
+      </c>
+      <c r="I75" t="s">
         <v>26</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>90</v>
       </c>
-      <c r="J75" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K75" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -3580,28 +3825,34 @@
       <c r="D76" t="b">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
-        <v>237</v>
+      <c r="E76" t="b">
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="G76" t="s">
+        <v>234</v>
       </c>
       <c r="H76" t="s">
+        <v>276</v>
+      </c>
+      <c r="I76" t="s">
         <v>53</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>78</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -3609,28 +3860,34 @@
       <c r="D77" t="b">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
-        <v>237</v>
+      <c r="E77" t="b">
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="G77" t="s">
+        <v>234</v>
       </c>
       <c r="H77" t="s">
+        <v>277</v>
+      </c>
+      <c r="I77" t="s">
         <v>53</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>81</v>
       </c>
-      <c r="J77" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K77" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -3638,28 +3895,34 @@
       <c r="D78" t="b">
         <v>0</v>
       </c>
-      <c r="E78" t="s">
-        <v>237</v>
+      <c r="E78" t="b">
+        <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="G78" t="s">
+        <v>234</v>
       </c>
       <c r="H78" t="s">
+        <v>278</v>
+      </c>
+      <c r="I78" t="s">
         <v>53</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>81</v>
       </c>
-      <c r="J78" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K78" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -3667,28 +3930,34 @@
       <c r="D79" t="b">
         <v>0</v>
       </c>
-      <c r="E79" t="s">
-        <v>237</v>
+      <c r="E79" t="b">
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="G79" t="s">
+        <v>234</v>
       </c>
       <c r="H79" t="s">
+        <v>278</v>
+      </c>
+      <c r="I79" t="s">
         <v>53</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>81</v>
       </c>
-      <c r="J79" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -3696,24 +3965,30 @@
       <c r="D80" t="b">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
-        <v>237</v>
+      <c r="E80" t="b">
+        <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="G80" t="s">
+        <v>234</v>
       </c>
       <c r="H80" t="s">
+        <v>278</v>
+      </c>
+      <c r="I80" t="s">
         <v>53</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>81</v>
       </c>
-      <c r="J80" t="s">
-        <v>275</v>
+      <c r="K80" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J73" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
+  <autoFilter ref="A1:K73" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087497D-D8B7-CE43-8013-B49AB9294ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF62BBDD-AB36-A44B-A54D-C3FD2650ECCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="QuestionList" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QuestionList!$A$1:$K$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QuestionList!$A$1:$L$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="285">
   <si>
     <t>survey_section</t>
   </si>
@@ -879,6 +879,18 @@
   </si>
   <si>
     <t>q04_cats</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>int64</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>category</t>
   </si>
 </sst>
 </file>
@@ -1228,11 +1240,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1241,13 +1253,13 @@
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="115.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="115.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>247</v>
       </c>
@@ -1270,19 +1282,22 @@
         <v>239</v>
       </c>
       <c r="H1" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" t="s">
         <v>248</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
       <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -1304,17 +1319,20 @@
       <c r="G2" t="s">
         <v>238</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -1336,17 +1354,20 @@
       <c r="G3" t="s">
         <v>234</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1368,17 +1389,20 @@
       <c r="G4" t="s">
         <v>234</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1400,17 +1424,20 @@
       <c r="G5" t="s">
         <v>234</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>7</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -1433,19 +1460,22 @@
         <v>237</v>
       </c>
       <c r="H6" t="s">
+        <v>282</v>
+      </c>
+      <c r="I6" t="s">
         <v>228</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -1468,19 +1498,22 @@
         <v>237</v>
       </c>
       <c r="H7" t="s">
+        <v>282</v>
+      </c>
+      <c r="I7" t="s">
         <v>228</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1503,19 +1536,22 @@
         <v>237</v>
       </c>
       <c r="H8" t="s">
+        <v>282</v>
+      </c>
+      <c r="I8" t="s">
         <v>228</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -1538,19 +1574,22 @@
         <v>237</v>
       </c>
       <c r="H9" t="s">
+        <v>282</v>
+      </c>
+      <c r="I9" t="s">
         <v>228</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -1573,19 +1612,22 @@
         <v>237</v>
       </c>
       <c r="H10" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" t="s">
         <v>228</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>6</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1608,19 +1650,22 @@
         <v>237</v>
       </c>
       <c r="H11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" t="s">
         <v>228</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>6</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>11</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -1643,19 +1688,22 @@
         <v>237</v>
       </c>
       <c r="H12" t="s">
+        <v>282</v>
+      </c>
+      <c r="I12" t="s">
         <v>228</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>11</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -1678,19 +1726,22 @@
         <v>237</v>
       </c>
       <c r="H13" t="s">
+        <v>282</v>
+      </c>
+      <c r="I13" t="s">
         <v>228</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>11</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1713,19 +1764,22 @@
         <v>237</v>
       </c>
       <c r="H14" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" t="s">
         <v>228</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>6</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>11</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -1748,19 +1802,22 @@
         <v>237</v>
       </c>
       <c r="H15" t="s">
+        <v>282</v>
+      </c>
+      <c r="I15" t="s">
         <v>228</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>6</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>11</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -1783,19 +1840,22 @@
         <v>234</v>
       </c>
       <c r="H16" t="s">
+        <v>284</v>
+      </c>
+      <c r="I16" t="s">
         <v>279</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>6</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -1818,19 +1878,22 @@
         <v>234</v>
       </c>
       <c r="H17" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" t="s">
         <v>280</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>24</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>107</v>
       </c>
@@ -1852,17 +1915,20 @@
       <c r="G18" t="s">
         <v>234</v>
       </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
+        <v>284</v>
+      </c>
+      <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>65</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1884,17 +1950,20 @@
       <c r="G19" t="s">
         <v>234</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J19" t="s">
         <v>6</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>67</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -1916,17 +1985,20 @@
       <c r="G20" t="s">
         <v>234</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" t="s">
         <v>6</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>69</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -1949,19 +2021,22 @@
         <v>237</v>
       </c>
       <c r="H21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I21" t="s">
         <v>229</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>26</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>27</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -1984,19 +2059,22 @@
         <v>237</v>
       </c>
       <c r="H22" t="s">
+        <v>282</v>
+      </c>
+      <c r="I22" t="s">
         <v>229</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>27</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2019,19 +2097,22 @@
         <v>237</v>
       </c>
       <c r="H23" t="s">
+        <v>282</v>
+      </c>
+      <c r="I23" t="s">
         <v>229</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>26</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2054,19 +2135,22 @@
         <v>237</v>
       </c>
       <c r="H24" t="s">
+        <v>282</v>
+      </c>
+      <c r="I24" t="s">
         <v>229</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>26</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>27</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -2089,19 +2173,22 @@
         <v>237</v>
       </c>
       <c r="H25" t="s">
+        <v>282</v>
+      </c>
+      <c r="I25" t="s">
         <v>229</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>26</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>27</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -2124,19 +2211,22 @@
         <v>237</v>
       </c>
       <c r="H26" t="s">
+        <v>282</v>
+      </c>
+      <c r="I26" t="s">
         <v>229</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>26</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>27</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -2159,19 +2249,22 @@
         <v>237</v>
       </c>
       <c r="H27" t="s">
+        <v>282</v>
+      </c>
+      <c r="I27" t="s">
         <v>229</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>26</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>27</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -2194,19 +2287,22 @@
         <v>237</v>
       </c>
       <c r="H28" t="s">
+        <v>282</v>
+      </c>
+      <c r="I28" t="s">
         <v>229</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>26</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>27</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -2229,19 +2325,22 @@
         <v>237</v>
       </c>
       <c r="H29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I29" t="s">
         <v>229</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>26</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>27</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -2264,19 +2363,22 @@
         <v>237</v>
       </c>
       <c r="H30" t="s">
+        <v>282</v>
+      </c>
+      <c r="I30" t="s">
         <v>229</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>26</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>27</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -2298,17 +2400,20 @@
       <c r="G31" t="s">
         <v>236</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
         <v>26</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>90</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -2330,17 +2435,20 @@
       <c r="G32" t="s">
         <v>241</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J32" t="s">
         <v>26</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>90</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>122</v>
       </c>
@@ -2363,19 +2471,22 @@
         <v>237</v>
       </c>
       <c r="H33" t="s">
+        <v>282</v>
+      </c>
+      <c r="I33" t="s">
         <v>230</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>28</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>29</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -2398,19 +2509,22 @@
         <v>237</v>
       </c>
       <c r="H34" t="s">
+        <v>282</v>
+      </c>
+      <c r="I34" t="s">
         <v>230</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>28</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>29</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -2433,19 +2547,22 @@
         <v>237</v>
       </c>
       <c r="H35" t="s">
+        <v>282</v>
+      </c>
+      <c r="I35" t="s">
         <v>230</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>28</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>29</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -2468,19 +2585,22 @@
         <v>237</v>
       </c>
       <c r="H36" t="s">
+        <v>282</v>
+      </c>
+      <c r="I36" t="s">
         <v>230</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>28</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>29</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -2503,19 +2623,22 @@
         <v>237</v>
       </c>
       <c r="H37" t="s">
+        <v>282</v>
+      </c>
+      <c r="I37" t="s">
         <v>230</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>28</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>29</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -2538,19 +2661,22 @@
         <v>237</v>
       </c>
       <c r="H38" t="s">
+        <v>282</v>
+      </c>
+      <c r="I38" t="s">
         <v>231</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>28</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>35</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>128</v>
       </c>
@@ -2573,19 +2699,22 @@
         <v>237</v>
       </c>
       <c r="H39" t="s">
+        <v>282</v>
+      </c>
+      <c r="I39" t="s">
         <v>231</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>28</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>35</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -2608,19 +2737,22 @@
         <v>237</v>
       </c>
       <c r="H40" t="s">
+        <v>282</v>
+      </c>
+      <c r="I40" t="s">
         <v>231</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>28</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>35</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>130</v>
       </c>
@@ -2643,19 +2775,22 @@
         <v>237</v>
       </c>
       <c r="H41" t="s">
+        <v>282</v>
+      </c>
+      <c r="I41" t="s">
         <v>231</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>28</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>35</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>131</v>
       </c>
@@ -2678,19 +2813,22 @@
         <v>237</v>
       </c>
       <c r="H42" t="s">
+        <v>282</v>
+      </c>
+      <c r="I42" t="s">
         <v>231</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>28</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>35</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2713,19 +2851,22 @@
         <v>237</v>
       </c>
       <c r="H43" t="s">
+        <v>282</v>
+      </c>
+      <c r="I43" t="s">
         <v>231</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>28</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>35</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>133</v>
       </c>
@@ -2748,19 +2889,22 @@
         <v>237</v>
       </c>
       <c r="H44" t="s">
+        <v>282</v>
+      </c>
+      <c r="I44" t="s">
         <v>231</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>28</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>35</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>134</v>
       </c>
@@ -2783,19 +2927,22 @@
         <v>237</v>
       </c>
       <c r="H45" t="s">
+        <v>282</v>
+      </c>
+      <c r="I45" t="s">
         <v>231</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>28</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>35</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2818,19 +2965,22 @@
         <v>237</v>
       </c>
       <c r="H46" t="s">
+        <v>282</v>
+      </c>
+      <c r="I46" t="s">
         <v>232</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>41</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>42</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -2853,19 +3003,22 @@
         <v>237</v>
       </c>
       <c r="H47" t="s">
+        <v>282</v>
+      </c>
+      <c r="I47" t="s">
         <v>232</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>41</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>42</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>137</v>
       </c>
@@ -2888,19 +3041,22 @@
         <v>237</v>
       </c>
       <c r="H48" t="s">
+        <v>282</v>
+      </c>
+      <c r="I48" t="s">
         <v>232</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>41</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>42</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>138</v>
       </c>
@@ -2923,19 +3079,22 @@
         <v>237</v>
       </c>
       <c r="H49" t="s">
+        <v>282</v>
+      </c>
+      <c r="I49" t="s">
         <v>232</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>41</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>42</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>139</v>
       </c>
@@ -2958,19 +3117,22 @@
         <v>237</v>
       </c>
       <c r="H50" t="s">
+        <v>282</v>
+      </c>
+      <c r="I50" t="s">
         <v>232</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>41</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>42</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -2993,19 +3155,22 @@
         <v>237</v>
       </c>
       <c r="H51" t="s">
+        <v>282</v>
+      </c>
+      <c r="I51" t="s">
         <v>232</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>41</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>42</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -3028,19 +3193,22 @@
         <v>237</v>
       </c>
       <c r="H52" t="s">
+        <v>282</v>
+      </c>
+      <c r="I52" t="s">
         <v>232</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>41</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>42</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>142</v>
       </c>
@@ -3063,19 +3231,22 @@
         <v>237</v>
       </c>
       <c r="H53" t="s">
+        <v>282</v>
+      </c>
+      <c r="I53" t="s">
         <v>232</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>41</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>42</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -3098,19 +3269,22 @@
         <v>237</v>
       </c>
       <c r="H54" t="s">
+        <v>282</v>
+      </c>
+      <c r="I54" t="s">
         <v>232</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>41</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>42</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -3133,19 +3307,22 @@
         <v>237</v>
       </c>
       <c r="H55" t="s">
+        <v>282</v>
+      </c>
+      <c r="I55" t="s">
         <v>232</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>41</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>42</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>145</v>
       </c>
@@ -3167,17 +3344,20 @@
       <c r="G56" t="s">
         <v>241</v>
       </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
+        <v>283</v>
+      </c>
+      <c r="J56" t="s">
         <v>41</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>72</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -3199,17 +3379,20 @@
       <c r="G57" t="s">
         <v>241</v>
       </c>
-      <c r="I57" t="s">
+      <c r="H57" t="s">
+        <v>283</v>
+      </c>
+      <c r="J57" t="s">
         <v>41</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>74</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>147</v>
       </c>
@@ -3231,17 +3414,20 @@
       <c r="G58" t="s">
         <v>241</v>
       </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
+        <v>283</v>
+      </c>
+      <c r="J58" t="s">
         <v>41</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>76</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -3263,17 +3449,20 @@
       <c r="G59" t="s">
         <v>236</v>
       </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
+        <v>283</v>
+      </c>
+      <c r="J59" t="s">
         <v>53</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>78</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -3295,17 +3484,20 @@
       <c r="G60" t="s">
         <v>234</v>
       </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
+        <v>284</v>
+      </c>
+      <c r="J60" t="s">
         <v>53</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>78</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>150</v>
       </c>
@@ -3327,17 +3519,20 @@
       <c r="G61" t="s">
         <v>236</v>
       </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
+        <v>283</v>
+      </c>
+      <c r="J61" t="s">
         <v>53</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>81</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>151</v>
       </c>
@@ -3360,19 +3555,22 @@
         <v>237</v>
       </c>
       <c r="H62" t="s">
+        <v>282</v>
+      </c>
+      <c r="I62" t="s">
         <v>232</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>53</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>54</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -3395,19 +3593,22 @@
         <v>237</v>
       </c>
       <c r="H63" t="s">
+        <v>282</v>
+      </c>
+      <c r="I63" t="s">
         <v>232</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>53</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>54</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>153</v>
       </c>
@@ -3430,19 +3631,22 @@
         <v>237</v>
       </c>
       <c r="H64" t="s">
+        <v>282</v>
+      </c>
+      <c r="I64" t="s">
         <v>232</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>53</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>54</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -3465,19 +3669,22 @@
         <v>237</v>
       </c>
       <c r="H65" t="s">
+        <v>282</v>
+      </c>
+      <c r="I65" t="s">
         <v>232</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>53</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>54</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -3500,19 +3707,22 @@
         <v>237</v>
       </c>
       <c r="H66" t="s">
+        <v>282</v>
+      </c>
+      <c r="I66" t="s">
         <v>232</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>53</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>54</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>156</v>
       </c>
@@ -3535,19 +3745,22 @@
         <v>237</v>
       </c>
       <c r="H67" t="s">
+        <v>282</v>
+      </c>
+      <c r="I67" t="s">
         <v>232</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>53</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>54</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>157</v>
       </c>
@@ -3570,19 +3783,22 @@
         <v>237</v>
       </c>
       <c r="H68" t="s">
+        <v>282</v>
+      </c>
+      <c r="I68" t="s">
         <v>232</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>53</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>54</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -3605,19 +3821,22 @@
         <v>237</v>
       </c>
       <c r="H69" t="s">
+        <v>282</v>
+      </c>
+      <c r="I69" t="s">
         <v>232</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>53</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>54</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -3639,17 +3858,20 @@
       <c r="G70" t="s">
         <v>241</v>
       </c>
-      <c r="I70" t="s">
+      <c r="H70" t="s">
+        <v>283</v>
+      </c>
+      <c r="J70" t="s">
         <v>53</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>63</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -3671,17 +3893,20 @@
       <c r="G71" t="s">
         <v>241</v>
       </c>
-      <c r="I71" t="s">
+      <c r="H71" t="s">
+        <v>283</v>
+      </c>
+      <c r="J71" t="s">
         <v>53</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>83</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -3703,17 +3928,20 @@
       <c r="G72" t="s">
         <v>241</v>
       </c>
-      <c r="I72" t="s">
+      <c r="H72" t="s">
+        <v>283</v>
+      </c>
+      <c r="J72" t="s">
         <v>53</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>85</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -3735,17 +3963,20 @@
       <c r="G73" t="s">
         <v>241</v>
       </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s">
+        <v>283</v>
+      </c>
+      <c r="J73" t="s">
         <v>53</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>87</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>255</v>
       </c>
@@ -3767,8 +3998,8 @@
       <c r="G74" t="s">
         <v>234</v>
       </c>
-      <c r="I74" t="s">
-        <v>252</v>
+      <c r="H74" t="s">
+        <v>284</v>
       </c>
       <c r="J74" t="s">
         <v>252</v>
@@ -3776,8 +4007,11 @@
       <c r="K74" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L74" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>253</v>
       </c>
@@ -3800,19 +4034,22 @@
         <v>234</v>
       </c>
       <c r="H75" t="s">
+        <v>284</v>
+      </c>
+      <c r="I75" t="s">
         <v>275</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>26</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>90</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -3835,19 +4072,22 @@
         <v>234</v>
       </c>
       <c r="H76" t="s">
+        <v>284</v>
+      </c>
+      <c r="I76" t="s">
         <v>276</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>53</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>78</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -3870,19 +4110,22 @@
         <v>234</v>
       </c>
       <c r="H77" t="s">
+        <v>284</v>
+      </c>
+      <c r="I77" t="s">
         <v>277</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>53</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>81</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>256</v>
       </c>
@@ -3905,19 +4148,22 @@
         <v>234</v>
       </c>
       <c r="H78" t="s">
+        <v>282</v>
+      </c>
+      <c r="I78" t="s">
         <v>278</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>53</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>81</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>257</v>
       </c>
@@ -3940,19 +4186,22 @@
         <v>234</v>
       </c>
       <c r="H79" t="s">
+        <v>282</v>
+      </c>
+      <c r="I79" t="s">
         <v>278</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>53</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>81</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>258</v>
       </c>
@@ -3975,20 +4224,23 @@
         <v>234</v>
       </c>
       <c r="H80" t="s">
+        <v>282</v>
+      </c>
+      <c r="I80" t="s">
         <v>278</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>53</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>81</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K73" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
+  <autoFilter ref="A1:L80" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF62BBDD-AB36-A44B-A54D-C3FD2650ECCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35FD90-E762-1F4C-94F8-077101EA3152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestionList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="286">
   <si>
     <t>survey_section</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>category</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1246,8 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3:H77"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3476,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="s">
         <v>235</v>
@@ -4034,7 +4037,7 @@
         <v>234</v>
       </c>
       <c r="H75" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I75" t="s">
         <v>275</v>
@@ -4148,7 +4151,7 @@
         <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I78" t="s">
         <v>278</v>
@@ -4186,7 +4189,7 @@
         <v>234</v>
       </c>
       <c r="H79" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I79" t="s">
         <v>278</v>
@@ -4224,7 +4227,7 @@
         <v>234</v>
       </c>
       <c r="H80" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="I80" t="s">
         <v>278</v>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD35FD90-E762-1F4C-94F8-077101EA3152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2223B-0A93-1147-9947-FA50C8B4E481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -1246,8 +1246,8 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1948,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
@@ -1983,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G20" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J20" t="s">
         <v>6</v>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E2223B-0A93-1147-9947-FA50C8B4E481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B053066-D95B-1A42-B352-069525BC5324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="316">
   <si>
     <t>survey_section</t>
   </si>
@@ -894,6 +894,96 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>company_small</t>
+  </si>
+  <si>
+    <t>company_med</t>
+  </si>
+  <si>
+    <t>company_large</t>
+  </si>
+  <si>
+    <t>q03c0</t>
+  </si>
+  <si>
+    <t>q03c1</t>
+  </si>
+  <si>
+    <t>q03c2</t>
+  </si>
+  <si>
+    <t>q04r0</t>
+  </si>
+  <si>
+    <t>q04r1</t>
+  </si>
+  <si>
+    <t>q04r2</t>
+  </si>
+  <si>
+    <t>Company size is 1-100 employees</t>
+  </si>
+  <si>
+    <t>Company size is 101-1000 employees</t>
+  </si>
+  <si>
+    <t>Company size is 1001 or more employees</t>
+  </si>
+  <si>
+    <t>num_res_small</t>
+  </si>
+  <si>
+    <t>num_res_med</t>
+  </si>
+  <si>
+    <t>num_res_large</t>
+  </si>
+  <si>
+    <t>Company has 10 or fewer researchers</t>
+  </si>
+  <si>
+    <t>Company has 11-50 researchers</t>
+  </si>
+  <si>
+    <t>Company has 51 or more researchers</t>
+  </si>
+  <si>
+    <t>q17tws</t>
+  </si>
+  <si>
+    <t>q17cs1</t>
+  </si>
+  <si>
+    <t>q17cs0</t>
+  </si>
+  <si>
+    <t>q17cs4</t>
+  </si>
+  <si>
+    <t>ideal_conf_workshop</t>
+  </si>
+  <si>
+    <t>ideal_conf_small</t>
+  </si>
+  <si>
+    <t>ideal_conf_med</t>
+  </si>
+  <si>
+    <t>ideal_conf_large</t>
+  </si>
+  <si>
+    <t>Ideal conference is workshop or retreat</t>
+  </si>
+  <si>
+    <t>Ideal conference has 300-500 attendees</t>
+  </si>
+  <si>
+    <t>Ideal conference has fewer than 300 attendees</t>
+  </si>
+  <si>
+    <t>Ideal conference has more than 500 attendees</t>
   </si>
 </sst>
 </file>
@@ -1243,11 +1333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4242,6 +4332,386 @@
         <v>272</v>
       </c>
     </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>289</v>
+      </c>
+      <c r="B81" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>235</v>
+      </c>
+      <c r="G81" t="s">
+        <v>234</v>
+      </c>
+      <c r="H81" t="s">
+        <v>285</v>
+      </c>
+      <c r="I81" t="s">
+        <v>278</v>
+      </c>
+      <c r="J81" t="s">
+        <v>279</v>
+      </c>
+      <c r="K81" t="s">
+        <v>6</v>
+      </c>
+      <c r="L81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" t="s">
+        <v>287</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" t="s">
+        <v>234</v>
+      </c>
+      <c r="H82" t="s">
+        <v>285</v>
+      </c>
+      <c r="I82" t="s">
+        <v>278</v>
+      </c>
+      <c r="J82" t="s">
+        <v>279</v>
+      </c>
+      <c r="K82" t="s">
+        <v>6</v>
+      </c>
+      <c r="L82" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>291</v>
+      </c>
+      <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>235</v>
+      </c>
+      <c r="G83" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" t="s">
+        <v>285</v>
+      </c>
+      <c r="I83" t="s">
+        <v>278</v>
+      </c>
+      <c r="J83" t="s">
+        <v>279</v>
+      </c>
+      <c r="K83" t="s">
+        <v>6</v>
+      </c>
+      <c r="L83" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>292</v>
+      </c>
+      <c r="B84" t="s">
+        <v>298</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" t="s">
+        <v>234</v>
+      </c>
+      <c r="H84" t="s">
+        <v>285</v>
+      </c>
+      <c r="I84" t="s">
+        <v>278</v>
+      </c>
+      <c r="J84" t="s">
+        <v>280</v>
+      </c>
+      <c r="K84" t="s">
+        <v>6</v>
+      </c>
+      <c r="L84" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>293</v>
+      </c>
+      <c r="B85" t="s">
+        <v>299</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>235</v>
+      </c>
+      <c r="G85" t="s">
+        <v>234</v>
+      </c>
+      <c r="H85" t="s">
+        <v>285</v>
+      </c>
+      <c r="I85" t="s">
+        <v>278</v>
+      </c>
+      <c r="J85" t="s">
+        <v>280</v>
+      </c>
+      <c r="K85" t="s">
+        <v>6</v>
+      </c>
+      <c r="L85" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>294</v>
+      </c>
+      <c r="B86" t="s">
+        <v>300</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>235</v>
+      </c>
+      <c r="G86" t="s">
+        <v>234</v>
+      </c>
+      <c r="H86" t="s">
+        <v>285</v>
+      </c>
+      <c r="I86" t="s">
+        <v>278</v>
+      </c>
+      <c r="J86" t="s">
+        <v>280</v>
+      </c>
+      <c r="K86" t="s">
+        <v>6</v>
+      </c>
+      <c r="L86" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>235</v>
+      </c>
+      <c r="G87" t="s">
+        <v>234</v>
+      </c>
+      <c r="H87" t="s">
+        <v>285</v>
+      </c>
+      <c r="I87" t="s">
+        <v>278</v>
+      </c>
+      <c r="J87" t="s">
+        <v>53</v>
+      </c>
+      <c r="K87" t="s">
+        <v>78</v>
+      </c>
+      <c r="L87" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+      <c r="B88" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>235</v>
+      </c>
+      <c r="G88" t="s">
+        <v>234</v>
+      </c>
+      <c r="H88" t="s">
+        <v>285</v>
+      </c>
+      <c r="I88" t="s">
+        <v>278</v>
+      </c>
+      <c r="J88" t="s">
+        <v>53</v>
+      </c>
+      <c r="K88" t="s">
+        <v>78</v>
+      </c>
+      <c r="L88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>305</v>
+      </c>
+      <c r="B89" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>235</v>
+      </c>
+      <c r="G89" t="s">
+        <v>234</v>
+      </c>
+      <c r="H89" t="s">
+        <v>285</v>
+      </c>
+      <c r="I89" t="s">
+        <v>278</v>
+      </c>
+      <c r="J89" t="s">
+        <v>53</v>
+      </c>
+      <c r="K89" t="s">
+        <v>78</v>
+      </c>
+      <c r="L89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>307</v>
+      </c>
+      <c r="B90" t="s">
+        <v>311</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>235</v>
+      </c>
+      <c r="G90" t="s">
+        <v>234</v>
+      </c>
+      <c r="H90" t="s">
+        <v>285</v>
+      </c>
+      <c r="I90" t="s">
+        <v>278</v>
+      </c>
+      <c r="J90" t="s">
+        <v>53</v>
+      </c>
+      <c r="K90" t="s">
+        <v>78</v>
+      </c>
+      <c r="L90" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L80" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B053066-D95B-1A42-B352-069525BC5324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C16C2D-6B72-0B42-9807-25229656C0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="315">
   <si>
     <t>survey_section</t>
   </si>
@@ -893,9 +893,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>company_small</t>
   </si>
   <si>
@@ -950,15 +947,9 @@
     <t>Company has 51 or more researchers</t>
   </si>
   <si>
-    <t>q17tws</t>
-  </si>
-  <si>
     <t>q17cs1</t>
   </si>
   <si>
-    <t>q17cs0</t>
-  </si>
-  <si>
     <t>q17cs4</t>
   </si>
   <si>
@@ -984,6 +975,12 @@
   </si>
   <si>
     <t>Ideal conference has more than 500 attendees</t>
+  </si>
+  <si>
+    <t>q17cs2</t>
+  </si>
+  <si>
+    <t>q17cs3</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1333,8 @@
   <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4127,7 +4124,7 @@
         <v>234</v>
       </c>
       <c r="H75" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I75" t="s">
         <v>275</v>
@@ -4241,7 +4238,7 @@
         <v>234</v>
       </c>
       <c r="H78" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I78" t="s">
         <v>278</v>
@@ -4279,7 +4276,7 @@
         <v>234</v>
       </c>
       <c r="H79" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I79" t="s">
         <v>278</v>
@@ -4317,7 +4314,7 @@
         <v>234</v>
       </c>
       <c r="H80" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I80" t="s">
         <v>278</v>
@@ -4334,10 +4331,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4346,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>235</v>
@@ -4355,7 +4352,7 @@
         <v>234</v>
       </c>
       <c r="H81" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I81" t="s">
         <v>278</v>
@@ -4367,15 +4364,15 @@
         <v>6</v>
       </c>
       <c r="L81" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -4384,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="s">
         <v>235</v>
@@ -4393,7 +4390,7 @@
         <v>234</v>
       </c>
       <c r="H82" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I82" t="s">
         <v>278</v>
@@ -4405,15 +4402,15 @@
         <v>6</v>
       </c>
       <c r="L82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B83" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4422,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>235</v>
@@ -4431,7 +4428,7 @@
         <v>234</v>
       </c>
       <c r="H83" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I83" t="s">
         <v>278</v>
@@ -4443,15 +4440,15 @@
         <v>6</v>
       </c>
       <c r="L83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B84" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -4460,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>235</v>
@@ -4469,7 +4466,7 @@
         <v>234</v>
       </c>
       <c r="H84" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I84" t="s">
         <v>278</v>
@@ -4481,15 +4478,15 @@
         <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -4498,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>235</v>
@@ -4507,7 +4504,7 @@
         <v>234</v>
       </c>
       <c r="H85" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I85" t="s">
         <v>278</v>
@@ -4519,15 +4516,15 @@
         <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -4536,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
         <v>235</v>
@@ -4545,7 +4542,7 @@
         <v>234</v>
       </c>
       <c r="H86" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I86" t="s">
         <v>278</v>
@@ -4557,15 +4554,15 @@
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C87" t="b">
         <v>0</v>
@@ -4574,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>235</v>
@@ -4583,7 +4580,7 @@
         <v>234</v>
       </c>
       <c r="H87" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I87" t="s">
         <v>278</v>
@@ -4595,15 +4592,15 @@
         <v>78</v>
       </c>
       <c r="L87" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
+        <v>313</v>
+      </c>
+      <c r="B88" t="s">
         <v>306</v>
-      </c>
-      <c r="B88" t="s">
-        <v>309</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -4612,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>235</v>
@@ -4621,7 +4618,7 @@
         <v>234</v>
       </c>
       <c r="H88" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I88" t="s">
         <v>278</v>
@@ -4633,15 +4630,15 @@
         <v>78</v>
       </c>
       <c r="L88" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B89" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -4650,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>235</v>
@@ -4659,7 +4656,7 @@
         <v>234</v>
       </c>
       <c r="H89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I89" t="s">
         <v>278</v>
@@ -4671,15 +4668,15 @@
         <v>78</v>
       </c>
       <c r="L89" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B90" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C90" t="b">
         <v>0</v>
@@ -4688,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>235</v>
@@ -4697,7 +4694,7 @@
         <v>234</v>
       </c>
       <c r="H90" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I90" t="s">
         <v>278</v>
@@ -4709,7 +4706,7 @@
         <v>78</v>
       </c>
       <c r="L90" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C16C2D-6B72-0B42-9807-25229656C0CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1B5CB-FC34-3940-B48C-86E3CF207426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="319">
   <si>
     <t>survey_section</t>
   </si>
@@ -981,6 +981,18 @@
   </si>
   <si>
     <t>q17cs3</t>
+  </si>
+  <si>
+    <t>x02</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>float64</t>
+  </si>
+  <si>
+    <t>User has history of conferences and/or favors attending conferences to learn</t>
   </si>
 </sst>
 </file>
@@ -1330,11 +1342,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A90" sqref="A90"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4709,6 +4721,41 @@
         <v>312</v>
       </c>
     </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>315</v>
+      </c>
+      <c r="B91" t="s">
+        <v>316</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>235</v>
+      </c>
+      <c r="G91" t="s">
+        <v>234</v>
+      </c>
+      <c r="H91" t="s">
+        <v>317</v>
+      </c>
+      <c r="J91" t="s">
+        <v>252</v>
+      </c>
+      <c r="K91" t="s">
+        <v>252</v>
+      </c>
+      <c r="L91" t="s">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L80" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F1B5CB-FC34-3940-B48C-86E3CF207426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0B1C8-3808-354A-A045-6131756E3CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -1345,8 +1345,8 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A91" sqref="A91"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2018,7 +2018,7 @@
         <v>234</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J18" t="s">
         <v>6</v>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F0B1C8-3808-354A-A045-6131756E3CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA95C49-9ECE-9C4E-8FBD-7A910278B629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -1346,7 +1346,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/data_files/data_dictionary.xlsx
+++ b/data_files/data_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevineliasen/GoogleDrive/CodingStuff/Codeup/Capstone/data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA95C49-9ECE-9C4E-8FBD-7A910278B629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA361375-BED3-094A-8820-566202FB3171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{31CA8657-46A0-9D49-84BF-6461B50EDC7B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="QuestionList" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QuestionList!$A$1:$L$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QuestionList!$A$1:$L$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1342,11 +1342,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53992D9E-FAE0-004A-B683-F804D396F232}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1469,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1504,7 +1505,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3564,7 +3565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>149</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -4078,7 +4079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>255</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>253</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>256</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>257</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>258</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>290</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>291</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>292</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>293</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>303</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>313</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>314</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>304</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>315</v>
       </c>
@@ -4757,7 +4758,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L80" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}"/>
+  <autoFilter ref="A1:L91" xr:uid="{914F26F1-26D3-3745-8C3E-01075C6E7E48}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>